--- a/Q2_MT2018513.xlsx
+++ b/Q2_MT2018513.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Q2:Tan series</t>
   </si>
@@ -24,9 +24,6 @@
   <si>
     <t>Keil Result(tanX)</t>
   </si>
-  <si>
-    <t>Actual Result</t>
-  </si>
 </sst>
 </file>
 
@@ -34,94 +31,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -143,11 +60,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,7 +84,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,7 +99,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,6 +121,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -213,13 +204,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,7 +288,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,157 +312,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,6 +395,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -418,15 +453,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,193 +495,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,8 +725,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.421666666666667"/>
-          <c:y val="0.00619322873658134"/>
+          <c:x val="0.340416666666667"/>
+          <c:y val="0.0243055555555556"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -770,17 +759,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.102444444444444"/>
-          <c:y val="0.197151114781173"/>
-          <c:w val="0.891097222222222"/>
-          <c:h val="0.796655656482246"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -827,10 +806,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$13</c:f>
+              <c:f>Sheet1!$A$5:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -844,18 +823,45 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>180</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>210</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>225</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
@@ -863,10 +869,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$13</c:f>
+              <c:f>Sheet1!$B$5:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -880,18 +886,45 @@
                   <c:v>0.999974</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.19172</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.73198</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="0.00E+00">
-                  <c:v>-5.25726e-5</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>-2.74775</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.19185</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.577409</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.0875401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.363904</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.577268</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>0.999868</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
+                  <c:v>2.74685</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.66876</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.7324</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.176433</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>-0.000102067</c:v>
                 </c:pt>
               </c:numCache>
@@ -907,11 +940,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="613812254"/>
-        <c:axId val="518257472"/>
+        <c:axId val="317305475"/>
+        <c:axId val="855959944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="613812254"/>
+        <c:axId val="317305475"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -967,12 +1000,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518257472"/>
+        <c:crossAx val="855959944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="518257472"/>
+        <c:axId val="855959944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,7 +1061,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613812254"/>
+        <c:crossAx val="317305475"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1637,24 +1670,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95885</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>79375</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4470400" y="667385"/>
-        <a:ext cx="4572000" cy="3247390"/>
+        <a:off x="3048000" y="952500"/>
+        <a:ext cx="4527550" cy="3437890"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1925,17 +1958,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C13"/>
+  <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="17.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="31.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="14.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
@@ -1943,114 +1976,156 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>10</v>
       </c>
       <c r="B6">
         <v>0.176324</v>
       </c>
-      <c r="C6">
-        <v>0.1763269807</v>
-      </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>30</v>
       </c>
       <c r="B7">
         <v>0.577339</v>
       </c>
-      <c r="C7">
-        <v>0.57735026919</v>
-      </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>45</v>
       </c>
       <c r="B8">
         <v>0.999974</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>1.19172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>60</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>1.73198</v>
       </c>
-      <c r="C9" s="1">
-        <v>1.73205080757</v>
-      </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>180</v>
-      </c>
-      <c r="B10" s="2">
-        <v>-5.25726e-5</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>-2.74775</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>130</v>
+      </c>
+      <c r="B12">
+        <v>-1.19185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>150</v>
+      </c>
+      <c r="B13">
+        <v>-0.577409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>175</v>
+      </c>
+      <c r="B14">
+        <v>-0.0875401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>200</v>
+      </c>
+      <c r="B15">
+        <v>0.363904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>210</v>
       </c>
-      <c r="B11">
+      <c r="B16">
         <v>0.577268</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.57735026919</v>
-      </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>225</v>
       </c>
-      <c r="B12">
+      <c r="B17">
         <v>0.999868</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>250</v>
+      </c>
+      <c r="B18">
+        <v>2.74685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>260</v>
+      </c>
+      <c r="B19">
+        <v>5.66876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>300</v>
+      </c>
+      <c r="B20">
+        <v>-1.7324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>350</v>
+      </c>
+      <c r="B21">
+        <v>-0.176433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>360</v>
       </c>
-      <c r="B13">
+      <c r="B22">
         <v>-0.000102067</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
